--- a/MySGrowLED_BOM.xlsx
+++ b/MySGrowLED_BOM.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emc2/Divers/Electronique/Projets/MySGrowLED/Temporary/V1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emc2/Divers/Electronique/Projets/MySGrowLED/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6820" yWindow="2040" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="10200" yWindow="4460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="BOM MySGrowLED" sheetId="1" r:id="rId1"/>
@@ -161,9 +161,6 @@
     <t>Mouser P/N</t>
   </si>
   <si>
-    <t>652-CR0805FX-4701ELF</t>
-  </si>
-  <si>
     <t>566-ATSHA204ASTUCZ-T</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>AT25DF512C-SSHN-B</t>
   </si>
   <si>
-    <t>CR0805-FX-4701ELF</t>
-  </si>
-  <si>
     <t>Adesto Technologies</t>
   </si>
   <si>
@@ -248,12 +242,6 @@
     <t>IRLZ44NPBF</t>
   </si>
   <si>
-    <t>652-CR0805-FX5602GLF</t>
-  </si>
-  <si>
-    <t>CR0805-FX5602GLF</t>
-  </si>
-  <si>
     <t>Optional, direct soldering</t>
   </si>
   <si>
@@ -414,13 +402,25 @@
   </si>
   <si>
     <t>Radio module</t>
+  </si>
+  <si>
+    <t>CR0805-JW-563ELF</t>
+  </si>
+  <si>
+    <t>652-CR0805JW-563ELF</t>
+  </si>
+  <si>
+    <t>CR0805-JW-472ELF</t>
+  </si>
+  <si>
+    <t>652-CR0805-JW-472ELF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -434,6 +434,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF323333"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -457,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -466,6 +472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,7 +752,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -764,13 +773,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -782,10 +791,10 @@
         <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -799,19 +808,19 @@
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -825,19 +834,19 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -851,19 +860,19 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" t="s">
-        <v>73</v>
+        <v>49</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="I4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -877,19 +886,19 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -903,22 +912,22 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F6" s="3">
         <v>1984620</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -932,19 +941,19 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -958,22 +967,22 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F8" s="3">
         <v>1725672</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -987,22 +996,22 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F9" s="3">
         <v>1725669</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1016,22 +1025,22 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1045,22 +1054,22 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1074,22 +1083,22 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1100,22 +1109,22 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" t="s">
         <v>100</v>
-      </c>
-      <c r="E13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G13" t="s">
-        <v>111</v>
-      </c>
-      <c r="I13" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1126,22 +1135,22 @@
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1155,19 +1164,19 @@
         <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
         <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1178,13 +1187,13 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1198,19 +1207,19 @@
         <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1224,13 +1233,13 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1241,16 +1250,16 @@
         <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1258,10 +1267,10 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1269,10 +1278,10 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I21" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1280,10 +1289,10 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1297,13 +1306,13 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1317,13 +1326,13 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1337,13 +1346,13 @@
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
